--- a/Documentation/ConfigFile_Helper.xlsx
+++ b/Documentation/ConfigFile_Helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\Alain Developer\Research\Cleanup Helper\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431476AF-1F83-4B58-8C80-1EB67BE88984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77EC41-22D2-40B6-98FC-4C38D8FC1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,28 +54,28 @@
     <t>Key</t>
   </si>
   <si>
-    <t>C:\Users\alain\Alain Developer\Research\Meeting Searcher\Output\Filter 1</t>
-  </si>
-  <si>
-    <t>C:\Users\alain\Alain Developer\Research\Meeting Searcher\Output\Filter 2</t>
-  </si>
-  <si>
     <t>filter_3_dir</t>
   </si>
   <si>
-    <t>C:\Users\alain\Alain Developer\Research\Meeting Searcher\Output\Filter 3</t>
-  </si>
-  <si>
-    <t>C:\Users\alain\Alain Developer\Research\Meeting Searcher\Output\Main Files</t>
-  </si>
-  <si>
-    <t>C:\Users\alain\Alain Developer\Research\Meeting Searcher\Output\Text Files</t>
-  </si>
-  <si>
-    <t>C:\Users\alain\Alain Developer\Research\Meeting Searcher\Output</t>
-  </si>
-  <si>
     <t>C:\Program Files\wkhtmltopdf\bin\wkhtmltopdf.exe</t>
+  </si>
+  <si>
+    <t>C:\Users\alain\Alain Developer\Research\Meeting Crawler\Output\Filter 1</t>
+  </si>
+  <si>
+    <t>C:\Users\alain\Alain Developer\Research\Meeting Crawler\Output\Filter 2</t>
+  </si>
+  <si>
+    <t>C:\Users\alain\Alain Developer\Research\Meeting Crawler\Output\Filter 3</t>
+  </si>
+  <si>
+    <t>C:\Users\alain\Alain Developer\Research\Meeting Crawler\Output\Main Files</t>
+  </si>
+  <si>
+    <t>C:\Users\alain\Alain Developer\Research\Meeting Crawler\Output\Text Files</t>
+  </si>
+  <si>
+    <t>C:\Users\alain\Alain Developer\Research\Meeting Crawler\Output</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,15 +446,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
